--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/fhir/ValueSet/ovulation-test-valueset</t>
+    <t>http://example.org/fhir/ValueSet/ovulation-test-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://example.org/fhir/CodeSystem/ovulation-test-codesystem</t>
+    <t>http://example.org/fhir/CodeSystem/ovulation-test-cs</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/fhir/ValueSet/ovulation-test-vs</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/ovulation-test-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://example.org/fhir/CodeSystem/ovulation-test-cs</t>
+    <t>https://2rdoc.pt/fhir/CodeSystem/ovulation-test-cs</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-ovulation-test-valueset.xlsx
+++ b/output/ValueSet-ovulation-test-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
